--- a/Data/Transitions/19391972Translation.xlsx
+++ b/Data/Transitions/19391972Translation.xlsx
@@ -25,7 +25,7 @@
     <t>Rel</t>
   </si>
   <si>
-    <t>{4.0: 1.0, 496.0: 0.0086292731496847, 559.0: 0.07823909206597987, 944.0: 0.0369675477904083, 971.0: 0.004024767801857585, 152.0: 1.7512315030382182e-06, 166.0: 0.0012804097311139564}</t>
+    <t>{4.0: 1.0, 496.0: 0.0086292731496847, 559.0: 0.07823909206597987, 944.0: 0.0369675477904083, 971.0: 0.004024767801857585, 152.0: 1.7174174533209238e-06, 166.0: 0.0012804097311139564}</t>
   </si>
   <si>
     <t>{5.0: 0.9810626254491548, 403.0: 0.006689567890074128}</t>
@@ -67,7 +67,7 @@
     <t>{32.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.6015689512799339}</t>
+    <t>{679.0: 0.4935636856368564}</t>
   </si>
   <si>
     <t>{34.0: 1.0}</t>
@@ -88,7 +88,7 @@
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.9985255086994986, 681.0: 0.005648551134411849, 741.0: 0.001379178879419197, 246.0: 0.0019479775409648218}</t>
+    <t>{46.0: 0.9985255086994986, 681.0: 0.005648551134411849, 741.0: 0.0013872263249506789, 246.0: 0.0019479775409648218}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
@@ -97,7 +97,7 @@
     <t>{48.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.8927723425900513}</t>
+    <t>{49.0: 0.8862897962909823}</t>
   </si>
   <si>
     <t>{50.0: 0.989247311827957, 96.0: 0.989247311827957, 100.0: 0.989247311827957}</t>
@@ -112,7 +112,7 @@
     <t>{60.0: 1.0}</t>
   </si>
   <si>
-    <t>{61.0: 1.0, 267.0: 0.9297082228116711, 887.0: 0.0036515616276937978, 834.0: 0.013634150300275929, 210.0: 0.0007166887517041163, 82.0: 7.397259306884126e-07, 788.0: -1.4500769944503822e-07}</t>
+    <t>{61.0: 1.0, 267.0: 0.9297082228116711, 887.0: 0.0036515616276937978, 834.0: 0.013634150300275929, 210.0: 0.0007166887517041163, 82.0: 7.397259306884126e-07, 788.0: -1.2666322734806188e-07}</t>
   </si>
   <si>
     <t>{62.0: 1.0}</t>
@@ -151,10 +151,10 @@
     <t>{78.0: 1.0}</t>
   </si>
   <si>
-    <t>{79.0: 0.9993500645023944, 271.0: 0.014820863280979566, 262.0: 0.0030915105248829106}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.985751361164705}</t>
+    <t>{79.0: 0.9993781418780706, 271.0: 0.014820863280979566, 262.0: 0.0030915105248829106}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.9857571080201947}</t>
   </si>
   <si>
     <t>{82.0: 0.9989678560896491, 914.0: 0.001365578724140128, 110.0: 0.0001885338002122541, 860.0: 1.0}</t>
@@ -166,7 +166,7 @@
     <t>{84.0: 0.6780888426426155}</t>
   </si>
   <si>
-    <t>{85.0: 0.9895784953063307, 178.0: 0.008695627667129929, 492.0: 0.003418852880658436, 97.0: 1.3219344149476795e-05, 696.0: 3.4452665911908995e-06}</t>
+    <t>{85.0: 0.9895402914516633, 178.0: 0.008741692524372261, 492.0: 0.003418852880658436, 97.0: 1.317900243106368e-05, 696.0: 3.34744081004416e-06}</t>
   </si>
   <si>
     <t>{86.0: 0.8987559555320275, 694.0: 0.006483790523690773}</t>
@@ -178,19 +178,19 @@
     <t>{89.0: 0.7053752535496958, 88.0: 0.0014757424829367274}</t>
   </si>
   <si>
-    <t>{90.0: 0.999293500201857, 420.0: 0.0017320652248592728, 212.0: 1.4030499998860047e-06}</t>
-  </si>
-  <si>
-    <t>{91.0: 0.96351849239523, 104.0: 1.0, 294.0: 1.0, 566.0: 1.0, 92.0: 0.04376513415565631, 858.0: 0.004867508316901873}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.9562348658443437, 91.0: 0.03648150760476995, 858.0: 0.10635135141719504}</t>
+    <t>{90.0: 0.999293500201857, 420.0: 0.0017320652248592728, 212.0: 1.3973902580550808e-06}</t>
+  </si>
+  <si>
+    <t>{91.0: 0.96351849239523, 104.0: 1.0, 294.0: 1.0, 566.0: 1.0, 92.0: 0.04376513415565631, 858.0: 0.00453890631355781}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.9562348658443437, 91.0: 0.03648150760476995, 858.0: 0.09917164778675883}</t>
   </si>
   <si>
     <t>{95.0: 1.0}</t>
   </si>
   <si>
-    <t>{97.0: 0.9710404310226443}</t>
+    <t>{97.0: 0.9710736238304881}</t>
   </si>
   <si>
     <t>{98.0: 0.801192063367579}</t>
@@ -232,7 +232,7 @@
     <t>{144.0: 1.0}</t>
   </si>
   <si>
-    <t>{145.0: 0.9974893393037774, 743.0: 0.002920931244925139, 544.0: 2.533420491138831e-06, 975.0: 0.005110374932125487, 942.0: 0.03131128830016397, 152.0: 0.0003658764490503502}</t>
+    <t>{145.0: 0.9974893393037774, 743.0: 0.0029287602462860877, 544.0: 2.533420491138831e-06, 975.0: 0.005110374932125487, 942.0: 0.03131128830016397, 152.0: 0.0003658795242960575}</t>
   </si>
   <si>
     <t>{146.0: 1.0}</t>
@@ -250,7 +250,7 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9280208629081054}</t>
+    <t>{152.0: 0.9280286630608138}</t>
   </si>
   <si>
     <t>{185.0: 0.9751506024096386, 700.0: 0.6933559187147691, 173.0: 0.07662878361651851}</t>
@@ -280,10 +280,10 @@
     <t>{171.0: 0.934845750020056}</t>
   </si>
   <si>
-    <t>{172.0: 1.0, 81.0: 0.013738694929124806, 97.0: 0.0012500520481753916}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.9233712163834815, 185.0: 0.024849397590361446, 700.0: 0.0003820790965011307, 420.0: 0.0055694725870200175, 212.0: 4.511520929137317e-06, 831.0: 0.004032258064516129}</t>
+    <t>{172.0: 1.0, 81.0: 0.013738775024671702, 97.0: 0.0012500947783605665}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.9233712163834815, 185.0: 0.024849397590361446, 700.0: 0.0003820790965011307, 420.0: 0.0055694725870200175, 212.0: 4.4933219741992875e-06, 831.0: 0.004032258064516129}</t>
   </si>
   <si>
     <t>{174.0: 1.0, 502.0: 1.0, 534.0: 0.0004564646810453041, 695.0: 0.001834862385321101, 786.0: 1.0, 204.0: 0.029718456725755994}</t>
@@ -298,13 +298,13 @@
     <t>{177.0: 1.0, 562.0: 0.0005025757004648825}</t>
   </si>
   <si>
-    <t>{178.0: 0.9761333054798886, 681.0: 0.010330059016298597, 768.0: 0.012138970280452072}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.531692820600847, 850.0: 0.001415488374311739}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.46830717939915295, 850.0: 0.0012467412429927535}</t>
+    <t>{178.0: 0.976087630142054, 681.0: 0.010415463666074353, 768.0: 0.012138970280452072}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.5315600531459954, 850.0: 0.0014179661304327988}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.46843994685400464, 850.0: 0.0012495897215178515}</t>
   </si>
   <si>
     <t>{181.0: 0.9954311821816105}</t>
@@ -316,13 +316,13 @@
     <t>{183.0: 1.0, 282.0: 1.0, 277.0: 0.0036082474226804126}</t>
   </si>
   <si>
-    <t>{184.0: 0.9938086184968266, 778.0: 0.0034971470642370696, 420.0: 5.360433881417949e-06, 212.0: 4.3421902644130816e-09}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.45766386834936346}</t>
-  </si>
-  <si>
-    <t>{311.0: 1.140246459639255}</t>
+    <t>{184.0: 0.9938086184968266, 778.0: 0.0034971470642370696, 420.0: 5.360433881417949e-06, 212.0: 4.324674369841023e-09}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.3251826980051353}</t>
+  </si>
+  <si>
+    <t>{311.0: 0.710222727687857}</t>
   </si>
   <si>
     <t>{202.0: 0.29814984568413466, 307.0: 0.9834669117201308}</t>
@@ -343,16 +343,16 @@
     <t>{208.0: 0.9887673231218089, 688.0: 0.00763807285546416}</t>
   </si>
   <si>
-    <t>{209.0: 0.9188472487770896}</t>
-  </si>
-  <si>
-    <t>{210.0: 0.9474342928660826, 82.0: 0.0009778885358393656, 788.0: -0.00019169446549450865}</t>
+    <t>{209.0: 0.9187771232698736}</t>
+  </si>
+  <si>
+    <t>{210.0: 0.9474342928660826, 82.0: 0.0009778885358393656, 788.0: -0.0001674437961378676}</t>
   </si>
   <si>
     <t>{211.0: 1.0}</t>
   </si>
   <si>
-    <t>{212.0: 0.9915406543532144, 681.0: 0.001947570591010176}</t>
+    <t>{212.0: 0.9915438969641641, 681.0: 0.001947570591010176}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -391,7 +391,7 @@
     <t>{226.0: 0.7384353461125667, 216.0: 0.033211370672670985}</t>
   </si>
   <si>
-    <t>{227.0: 1.0, 844.0: 0.003951267698386566}</t>
+    <t>{227.0: 1.0, 844.0: 0.003972194637537239}</t>
   </si>
   <si>
     <t>{229.0: 1.0}</t>
@@ -409,13 +409,13 @@
     <t>{233.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.10722765740994868}</t>
+    <t>{49.0: 0.1137102037090177}</t>
   </si>
   <si>
     <t>{236.0: 1.0}</t>
   </si>
   <si>
-    <t>{238.0: 1.0, 253.0: 0.0025682932523931824}</t>
+    <t>{238.0: 1.0, 253.0: 0.0025246729400963965}</t>
   </si>
   <si>
     <t>{239.0: 1.0}</t>
@@ -427,7 +427,7 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.4673382942459527}</t>
+    <t>{242.0: 0.6871389480085133}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986, 738.0: 0.007169576059850374, 228.0: 0.007169576059850374}</t>
@@ -436,10 +436,10 @@
     <t>{244.0: 0.9799247176913425, 565.0: 0.00771386760273191, 564.0: 0.00018847476794044198, 84.0: 6.004536785832098e-05}</t>
   </si>
   <si>
-    <t>{858.0: 0.36701058067946674}</t>
-  </si>
-  <si>
-    <t>{246.0: 0.9980520224590351, 46.0: 0.001474491300501327, 681.0: 8.34103829653256e-06, 741.0: 2.0365901940626062e-06}</t>
+    <t>{858.0: 0.262525543590365}</t>
+  </si>
+  <si>
+    <t>{246.0: 0.9980520224590351, 46.0: 0.001474491300501327, 681.0: 8.34103829653256e-06, 741.0: 2.0484736044753086e-06}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -460,7 +460,7 @@
     <t>{252.0: 1.0}</t>
   </si>
   <si>
-    <t>{253.0: 0.9974317067476068}</t>
+    <t>{253.0: 0.9974753270599036}</t>
   </si>
   <si>
     <t>{254.0: 1.0}</t>
@@ -484,7 +484,7 @@
     <t>{261.0: 1.0}</t>
   </si>
   <si>
-    <t>{262.0: 0.9747919123771428, 79.0: 0.0006499354976056577}</t>
+    <t>{262.0: 0.9747919123771428, 79.0: 0.0006218581219293059}</t>
   </si>
   <si>
     <t>{263.0: 0.9979662270430174}</t>
@@ -493,10 +493,10 @@
     <t>{265.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 0.06571137480117686}</t>
-  </si>
-  <si>
-    <t>{270.0: 0.9987689782519491, 479.0: 0.02114577354250803}</t>
+    <t>{400.0: 0.06158198808299092}</t>
+  </si>
+  <si>
+    <t>{270.0: 0.9987689782519491, 479.0: 0.020519381779662598}</t>
   </si>
   <si>
     <t>{271.0: 0.9851791367190204, 237.0: 1.0}</t>
@@ -535,10 +535,10 @@
     <t>{284.0: 1.0}</t>
   </si>
   <si>
-    <t>{285.0: 1.0, 311.0: -0.01593502092076081}</t>
-  </si>
-  <si>
-    <t>{286.0: 1.0, 909.0: 0.11458663141263672, 306.0: 0.011054877862037047, 788.0: 0.026298366265383358, 142.0: 1.797534470597053e-05}</t>
+    <t>{285.0: 1.0, 311.0: 0.11340988641029195}</t>
+  </si>
+  <si>
+    <t>{286.0: 1.0, 909.0: 0.11458663141263672, 306.0: 0.011054877862037047, 788.0: 0.026172626732387502, 142.0: 1.797534470597053e-05}</t>
   </si>
   <si>
     <t>{287.0: 1.0, 847.0: 0.005988023952095809}</t>
@@ -574,7 +574,7 @@
     <t>{300.0: 1.0}</t>
   </si>
   <si>
-    <t>{301.0: 0.9865262782189703, 145.0: 0.0003809828658252912, 743.0: 1.1156257142025587e-06, 544.0: 9.676191624546752e-10, 975.0: 1.9518657597301533e-06, 942.0: 1.195908956541287e-05, 152.0: 1.3974350662682385e-07}</t>
+    <t>{301.0: 0.9865262782189703, 145.0: 0.0003809828658252912, 743.0: 1.118615937012485e-06, 544.0: 9.676191624546752e-10, 975.0: 1.9518657597301533e-06, 942.0: 1.195908956541287e-05, 152.0: 1.3974468119168037e-07}</t>
   </si>
   <si>
     <t>{303.0: 0.9475683890577508, 840.0: 0.10136869118905047}</t>
@@ -598,7 +598,7 @@
     <t>{310.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: -0.12431143871849425}</t>
+    <t>{311.0: 0.17636738590185097}</t>
   </si>
   <si>
     <t>{226.0: 0.2608672648665498, 5.0: 0.016017234919445487, 759.0: 0.003654342218400688}</t>
@@ -619,7 +619,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.21980065376256058}</t>
+    <t>{242.0: 0.3128610519914868}</t>
   </si>
   <si>
     <t>{398.0: 1.0, 98.0: 0.198807936632421, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
@@ -628,13 +628,13 @@
     <t>{399.0: 0.9855936413313463}</t>
   </si>
   <si>
-    <t>{400.0: 0.9333777862149146, 50.0: 0.010752688172043012, 96.0: 0.010752688172043012, 100.0: 0.010752688172043012}</t>
+    <t>{400.0: 0.9375071729331006, 50.0: 0.010752688172043012, 96.0: 0.010752688172043012, 100.0: 0.010752688172043012}</t>
   </si>
   <si>
     <t>{401.0: 1.0, 16.0: 0.005869490159972379, 165.0: 0.0005466721333880005, 914.0: 0.0001117479774241194, 110.0: 1.5428089554535637e-05}</t>
   </si>
   <si>
-    <t>{402.0: 0.9631065512242976, 141.0: 0.001462755443927208}</t>
+    <t>{402.0: 0.9631027328570206, 141.0: 0.001462755443927208}</t>
   </si>
   <si>
     <t>{403.0: 0.9933104321099259}</t>
@@ -679,13 +679,13 @@
     <t>{419.0: 1.0}</t>
   </si>
   <si>
-    <t>{420.0: 0.9911644356572448, 212.0: 0.0008028873516867112}</t>
+    <t>{420.0: 0.9911644356572448, 212.0: 0.0007996485967383983}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.14934163476504986}</t>
+    <t>{597.0: 0.13779986025929664}</t>
   </si>
   <si>
     <t>{423.0: 0.9970319608416004, 202.0: 0.00025952612563522384, 307.0: 0.0008238054895957766, 853.0: 1.403420134868675e-05, 477.0: 1.2773105550742652e-05, 207.0: 6.229748827025319e-06, 680.0: 4.191588781850509e-08}</t>
@@ -700,10 +700,10 @@
     <t>{426.0: 1.0}</t>
   </si>
   <si>
-    <t>{428.0: 0.2669725101108509, 755.0: 0.13485851896447923}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.7321078791910113}</t>
+    <t>{428.0: 0.2118598838073569, 755.0: 0.13485851896447923}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.7872205054945053}</t>
   </si>
   <si>
     <t>{429.0: 1.0}</t>
@@ -724,7 +724,7 @@
     <t>{434.0: 1.0, 585.0: 0.2521276595744681}</t>
   </si>
   <si>
-    <t>{435.0: 0.9967622571692877, 781.0: 0.0030889621087314663, 81.0: 1.5751974037386366e-06}</t>
+    <t>{435.0: 0.9967622571692877, 781.0: 0.0030889621087314663, 81.0: 1.5571981727767432e-06}</t>
   </si>
   <si>
     <t>{436.0: 0.9924575738529227}</t>
@@ -751,13 +751,13 @@
     <t>{475.0: 0.9825250343608875}</t>
   </si>
   <si>
-    <t>{476.0: 1.0, 402.0: 0.035199312420877364, 141.0: 5.346032149888464e-05}</t>
+    <t>{476.0: 1.0, 402.0: 0.035199172868402566, 141.0: 5.346032149888464e-05}</t>
   </si>
   <si>
     <t>{478.0: 1.0, 170.0: 0.4779653070792311}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728, 559.0: 0.0005780346820809249, 944.0: 0.011925640126271484}</t>
+    <t>{479.0: 0.9794553272814143, 559.0: 0.0005780346820809249, 944.0: 0.011925640126271484}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
@@ -790,13 +790,13 @@
     <t>{491.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 0.995625, 97.0: 0.027692600544453445, 696.0: 0.0010033170977494122, 85.0: 0.0014245921465699139, 178.0: 0.015123639130140285}</t>
+    <t>{492.0: 0.995625, 97.0: 0.02765941663047021, 696.0: 0.0009748286553524804, 85.0: 0.0014245371484958996, 178.0: 0.015122998363626934}</t>
   </si>
   <si>
     <t>{493.0: 0.9993252361673415}</t>
   </si>
   <si>
-    <t>{494.0: 0.979825999243475, 889.0: 0.0006215198201897897, 565.0: 1.2463708207241241e-05}</t>
+    <t>{494.0: 0.979825999243475, 889.0: 0.0010856577184348603, 565.0: 1.2463708207241241e-05}</t>
   </si>
   <si>
     <t>{495.0: 1.0}</t>
@@ -808,7 +808,7 @@
     <t>{498.0: 1.0}</t>
   </si>
   <si>
-    <t>{499.0: 0.9532064834390416, 270.0: 0.0012310217480508822, 479.0: 2.6062991219196422e-05}</t>
+    <t>{499.0: 0.9532064834390416, 270.0: 0.0012310217480508822, 479.0: 2.5290938923166717e-05}</t>
   </si>
   <si>
     <t>{500.0: 0.9922541481411947, 277.0: 0.0002631201196722609}</t>
@@ -844,7 +844,7 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.9995435353189547, 402.0: 0.0006615052106698433, 141.0: 1.0046867056022953e-06}</t>
+    <t>{534.0: 0.9995435353189547, 402.0: 0.0006615025880422153, 141.0: 1.0046867056022953e-06}</t>
   </si>
   <si>
     <t>{535.0: 1.0}</t>
@@ -853,7 +853,7 @@
     <t>{536.0: 1.0}</t>
   </si>
   <si>
-    <t>{537.0: 1.0, 608.0: 0.027455765710799267, 293.0: 0.035617916891527254}</t>
+    <t>{537.0: 1.0, 608.0: 0.026122291021671826, 293.0: 0.035617916891527254}</t>
   </si>
   <si>
     <t>{538.0: 0.9993696816892531}</t>
@@ -865,10 +865,10 @@
     <t>{540.0: 1.0, 428.0: 0.0009196106981377883}</t>
   </si>
   <si>
-    <t>{542.0: 0.10260447738242569, 911.0: 0.01216659738912571}</t>
-  </si>
-  <si>
-    <t>{542.0: 0.8973955226175743, 911.0: 0.000329448166078341}</t>
+    <t>{542.0: 0.09653726996389683, 911.0: 0.012153140890196356}</t>
+  </si>
+  <si>
+    <t>{542.0: 0.9034627300361032, 911.0: 0.00032908378984788624}</t>
   </si>
   <si>
     <t>{543.0: 1.0}</t>
@@ -928,7 +928,7 @@
     <t>{582.0: 1.0}</t>
   </si>
   <si>
-    <t>{583.0: 0.4522030262777632, 758.0: 0.0008773141218004999}</t>
+    <t>{583.0: 0.5730553232783095, 758.0: 0.001111778335106056}</t>
   </si>
   <si>
     <t>{584.0: 1.0}</t>
@@ -946,7 +946,7 @@
     <t>{588.0: 1.0, 507.0: 0.0010766580534022395}</t>
   </si>
   <si>
-    <t>{589.0: 1.0, 145.0: 0.0006552002793013001, 743.0: 0.013299521821319988, 10.0: 0.006268500783562598}</t>
+    <t>{589.0: 1.0, 145.0: 0.0006552002793013001, 743.0: 0.010654858616757608, 10.0: 0.006268500783562598}</t>
   </si>
   <si>
     <t>{590.0: 1.0}</t>
@@ -955,16 +955,16 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.3232683533803401, 171.0: 0.001857864099887012}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.6767316466196599, 171.0: 0.003889262336894597, 85.0: 0.005397362490856421, 178.0: 4.742772284122022e-05, 492.0: 1.8647119341563785e-05, 97.0: 7.210099310416157e-08, 696.0: 1.879118509395074e-08}</t>
-  </si>
-  <si>
-    <t>{595.0: 1.0, 402.0: 0.0010326311441553077}</t>
-  </si>
-  <si>
-    <t>{597.0: 0.8506583652349502}</t>
+    <t>{593.0: 0.49682353666810586, 171.0: 0.0028553076820006084}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.5031764633318941, 171.0: 0.0028918187547810007, 85.0: 0.0053971541192586485, 178.0: 4.767896994673605e-05, 492.0: 1.8647119341563785e-05, 97.0: 7.188096116246882e-08, 696.0: 1.8257623376204746e-08}</t>
+  </si>
+  <si>
+    <t>{595.0: 1.0, 402.0: 0.001036591686534674}</t>
+  </si>
+  <si>
+    <t>{597.0: 0.8622001397407033}</t>
   </si>
   <si>
     <t>{598.0: 1.0, 599.0: 0.010538833469030598}</t>
@@ -994,7 +994,7 @@
     <t>{607.0: 0.9993920972644377, 276.0: 0.00019373695788784293}</t>
   </si>
   <si>
-    <t>{608.0: 0.9725442342892008}</t>
+    <t>{608.0: 0.9738777089783281}</t>
   </si>
   <si>
     <t>{609.0: 1.0, 886.0: 0.619199737790098, 610.0: 0.46377929329690437, 531.0: 0.12147832833239579, 262.0: 0.0026866848142964757, 442.0: 0.0002552065721268819, 1.0: 1.0}</t>
@@ -1048,7 +1048,7 @@
     <t>{626.0: 0.6875132950436077}</t>
   </si>
   <si>
-    <t>{629.0: 1.0, 209.0: 0.048963766190058954, 788.0: 0.513246688327918}</t>
+    <t>{629.0: 1.0, 209.0: 0.04903634832856514, 788.0: 0.5105034182722188}</t>
   </si>
   <si>
     <t>{630.0: 1.0, 603.0: 0.0035300050428643467}</t>
@@ -1069,19 +1069,19 @@
     <t>{636.0: 0.997141768292683}</t>
   </si>
   <si>
-    <t>{702.0: 0.0014527342533983605}</t>
+    <t>{702.0: 0.001321003963011889}</t>
   </si>
   <si>
     <t>{678.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.39843104872006607}</t>
+    <t>{679.0: 0.5064363143631436}</t>
   </si>
   <si>
     <t>{680.0: 0.9762594508880611, 481.0: 0.018092175285225227, 529.0: 0.008019367529126948, 530.0: 0.008019367529126948, 853.0: 4.911970472040362e-05, 477.0: 4.470586942759928e-05, 202.0: 3.445934204132267e-05, 307.0: 7.615324208027109e-07, 207.0: 2.1804120894588614e-05}</t>
   </si>
   <si>
-    <t>{681.0: 0.9038226351951332, 171.0: 0.004345719985261719, 90.0: 0.0006502117460433972, 420.0: 1.1270053831925288e-06, 212.0: 0.007039869053910691}</t>
+    <t>{681.0: 0.9037440348804595, 171.0: 0.004345719985261719, 90.0: 0.0006502117460433972, 420.0: 1.1270053831925288e-06, 212.0: 0.00703989207253523}</t>
   </si>
   <si>
     <t>{682.0: 0.9972826086956522, 575.0: 0.001898599635799961}</t>
@@ -1123,16 +1123,16 @@
     <t>{695.0: 0.9904820191724878}</t>
   </si>
   <si>
-    <t>{696.0: 0.9989932188444743, 14.0: 0.0009894459102902375, 492.0: 0.0009375, 97.0: 3.624939584340261e-06}</t>
+    <t>{696.0: 0.9990218056462141, 14.0: 0.0009894459102902375, 492.0: 0.0009375, 97.0: 3.6138772887889494e-06}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.20776196468091965}</t>
-  </si>
-  <si>
-    <t>{698.0: 0.7922380353190803, 683.0: 0.00887163848073191}</t>
+    <t>{698.0: 0.4351638564266561}</t>
+  </si>
+  <si>
+    <t>{698.0: 0.5648361435733439, 683.0: 0.00887163848073191}</t>
   </si>
   <si>
     <t>{700.0: 0.305808730390477}</t>
@@ -1141,7 +1141,7 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.9985472657466017}</t>
+    <t>{702.0: 0.9986789960369881}</t>
   </si>
   <si>
     <t>{704.0: 1.0, 477.0: 0.00027032451531257496, 538.0: 0.0006303183107469272, 906.0: 0.029413383692964333}</t>
@@ -1186,13 +1186,13 @@
     <t>{740.0: 1.0}</t>
   </si>
   <si>
-    <t>{741.0: 0.9986187845303868}</t>
-  </si>
-  <si>
-    <t>{583.0: 0.546159419137084, 758.0: 0.001059597887053955}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.9837784313080407, 145.0: 0.00021810329937778687, 544.0: 0.0008532636435542259, 975.0: 6.058676758964917e-07}</t>
+    <t>{741.0: 0.9986107252014449}</t>
+  </si>
+  <si>
+    <t>{583.0: 0.42530712213653776, 758.0: 0.000825133673748399}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.9864152625210193, 145.0: 0.00021810329937778687, 544.0: 0.0008532636435542259, 975.0: 6.058676758964917e-07}</t>
   </si>
   <si>
     <t>{746.0: 1.0}</t>
@@ -1276,13 +1276,13 @@
     <t>{777.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.9965028529357629, 420.0: 0.0015274415281050933, 212.0: 1.2372956890280223e-06, 184.0: 0.006191381503173426}</t>
+    <t>{778.0: 0.9965028529357629, 420.0: 0.0015274415281050933, 212.0: 1.2323045809641737e-06, 184.0: 0.006191381503173426}</t>
   </si>
   <si>
     <t>{779.0: 0.9517781796262809}</t>
   </si>
   <si>
-    <t>{781.0: 0.9969110378912686, 81.0: 0.0005083687087665827, 435.0: 0.0032377428307123032}</t>
+    <t>{781.0: 0.9969110378912686, 81.0: 0.0005025597569608143, 435.0: 0.0032377428307123032}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
@@ -1291,16 +1291,16 @@
     <t>{784.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.9927452636939863, 889.0: 0.5730622017651047}</t>
+    <t>{785.0: 0.9927452636939863, 889.0: 0.25659597967009595}</t>
   </si>
   <si>
     <t>{787.0: 1.0, 500.0: 0.0077458518588053235, 277.0: 2.053999443459568e-06}</t>
   </si>
   <si>
-    <t>{788.0: -0.040079086164010985}</t>
-  </si>
-  <si>
-    <t>{789.0: 1.0, 681.0: 0.07824284302484964, 171.0: 0.0003762037742763266, 90.0: 5.628805209951758e-05, 420.0: 9.756350621408776e-08, 212.0: 0.0006094330323799761}</t>
+    <t>{788.0: -0.035008805891847364}</t>
+  </si>
+  <si>
+    <t>{789.0: 1.0, 681.0: 0.07823603868974756, 171.0: 0.0003762037742763266, 90.0: 5.628805209951758e-05, 420.0: 9.756350621408776e-08, 212.0: 0.0006094350250747332}</t>
   </si>
   <si>
     <t>{831.0: 0.9948604959744661}</t>
@@ -1312,7 +1312,7 @@
     <t>{833.0: 0.9992826398852224, 17.0: 0.015223021717511548, 918.0: 0.0009153035400826402}</t>
   </si>
   <si>
-    <t>{834.0: 0.9863658496997241, 210.0: 0.05184901838221328, 82.0: 5.35156485808748e-05, 788.0: -1.0490616541994016e-05}</t>
+    <t>{834.0: 0.9863658496997241, 210.0: 0.05184901838221328, 82.0: 5.35156485808748e-05, 788.0: -9.163481340406811e-06}</t>
   </si>
   <si>
     <t>{835.0: 1.0, 756.0: 0.012552301255230125, 836.0: 0.0061525840853158325}</t>
@@ -1333,7 +1333,7 @@
     <t>{842.0: 1.0, 606.0: 0.002308136180034622}</t>
   </si>
   <si>
-    <t>{844.0: 0.9960487323016134}</t>
+    <t>{844.0: 0.9960278053624627}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1345,13 +1345,13 @@
     <t>{847.0: 0.9940119760479041}</t>
   </si>
   <si>
-    <t>{848.0: 0.9232439017315892, 634.0: 0.9232439017315892}</t>
+    <t>{848.0: 0.9228851136919364, 634.0: 0.9228851136919364}</t>
   </si>
   <si>
     <t>{849.0: 1.0, 315.0: 0.002220029600394672}</t>
   </si>
   <si>
-    <t>{850.0: 0.9973377703826956}</t>
+    <t>{850.0: 0.9973324441480493}</t>
   </si>
   <si>
     <t>{851.0: 1.0, 7.0: 0.1141255380919011}</t>
@@ -1375,13 +1375,13 @@
     <t>{857.0: 1.0}</t>
   </si>
   <si>
-    <t>{858.0: 0.06410669123707292}</t>
+    <t>{858.0: 0.308581204304183}</t>
   </si>
   <si>
     <t>{859.0: 1.0}</t>
   </si>
   <si>
-    <t>{861.0: 0.6808248608561583, 619.0: 0.0001431947985895543}</t>
+    <t>{861.0: 0.6849891000612596, 619.0: 0.0001431947985895543}</t>
   </si>
   <si>
     <t>{863.0: 1.0}</t>
@@ -1399,7 +1399,7 @@
     <t>{887.0: 0.9495979142632915, 619.0: 0.0006435006435006435, 267.0: 0.07029177718832891}</t>
   </si>
   <si>
-    <t>{889.0: 0.4244980371896264, 565.0: 0.008512712705545768, 494.0: 0.020174000756525028}</t>
+    <t>{889.0: 0.7415042216910095, 565.0: 0.008512712705545768, 494.0: 0.020174000756525028}</t>
   </si>
   <si>
     <t>{890.0: 1.0}</t>
@@ -1417,7 +1417,7 @@
     <t>{894.0: 0.9841479524438573}</t>
   </si>
   <si>
-    <t>{895.0: 1.0, 209.0: 0.03218898503285146, 896.0: 1.0, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395}</t>
+    <t>{895.0: 1.0, 209.0: 0.03218652840156133, 896.0: 1.0, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395}</t>
   </si>
   <si>
     <t>{905.0: 1.0, 499.0: 0.04679351656095842}</t>
@@ -1426,16 +1426,16 @@
     <t>{906.0: 0.9635111446089225, 477.0: 0.002357946634454042, 202.0: 6.242014983442577e-05, 307.0: 0.00020589697722602968, 680.0: 0.0004344053635620134, 481.0: 8.050461541042687e-06}</t>
   </si>
   <si>
-    <t>{788.0: 0.5007363616604456}</t>
+    <t>{788.0: 0.49850949482794676}</t>
   </si>
   <si>
     <t>{909.0: 0.8854133685873632}</t>
   </si>
   <si>
-    <t>{911.0: 0.987503954444796, 687.0: 0.006852159468438538}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.3191751391438416}</t>
+    <t>{911.0: 0.9875177753199558, 687.0: 0.006852159468438538}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.3150108999387404}</t>
   </si>
   <si>
     <t>{913.0: 1.0}</t>
@@ -1501,10 +1501,10 @@
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 1.0, 85.0: 0.0035995500562429695}</t>
-  </si>
-  <si>
-    <t>{940.0: 1.0, 785.0: 0.007254736306013725, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 889.0: 0.0018182412250789639}</t>
+    <t>{937.0: 1.0, 85.0: 0.0036380172805820826}</t>
+  </si>
+  <si>
+    <t>{940.0: 1.0, 785.0: 0.007254736306013725, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 889.0: 0.0008141409204596781}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
@@ -1513,13 +1513,13 @@
     <t>{942.0: 0.9686767526102706}</t>
   </si>
   <si>
-    <t>{943.0: 1.0, 848.0: 0.07675609826841082, 634.0: 0.07675609826841082}</t>
+    <t>{943.0: 1.0, 848.0: 0.07711488630806371, 634.0: 0.07711488630806371}</t>
   </si>
   <si>
     <t>{944.0: 0.9511068120833203}</t>
   </si>
   <si>
-    <t>{971.0: 0.9959752321981424, 152.0: 0.00043336244194414986}</t>
+    <t>{971.0: 0.9959752321981424, 152.0: 0.00042499476517949327}</t>
   </si>
   <si>
     <t>{972.0: 1.0}</t>
@@ -1531,7 +1531,7 @@
     <t>{974.0: 1.0}</t>
   </si>
   <si>
-    <t>{975.0: 0.9941776158300827, 152.0: 0.07117800722589049}</t>
+    <t>{975.0: 0.9941776158300827, 152.0: 0.07117860548757622}</t>
   </si>
   <si>
     <t>{976.0: 1.0}</t>
@@ -1633,7 +1633,7 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.9672733850680975, 178.0: 0.023807093342605865, 492.0: 0.00889676964238059, 97.0: 1.8201557532787838e-05, 696.0: 4.5503893831969595e-06}</t>
+    <t>{85.0: 0.9672733850680975, 178.0: 0.023807093342605865, 492.0: 0.008896769642380589, 97.0: 1.8201557532787838e-05, 696.0: 4.5503893831969595e-06}</t>
   </si>
   <si>
     <t>{86.0: 0.9886446353180957, 694.0: 0.011355364681904206}</t>
@@ -1723,10 +1723,10 @@
     <t>{177.0: 0.9988607234406153, 562.0: 0.0011392765593847907}</t>
   </si>
   <si>
-    <t>{178.0: 0.986260226386314, 681.0: 0.007171753079185206, 768.0: 0.006568020534500982}</t>
-  </si>
-  <si>
-    <t>{179.0: 0.5374525139860676, 180.0: 0.46234052964435124, 850.0: 0.00020695636958117784}</t>
+    <t>{178.0: 0.9862044958405798, 681.0: 0.007227483624919331, 768.0: 0.006568020534500982}</t>
+  </si>
+  <si>
+    <t>{179.0: 0.5383826591317817, 180.0: 0.4614108006709617, 850.0: 0.00020654019725647354}</t>
   </si>
   <si>
     <t>{180.0: 0.9995525727069355, 850.0: 0.0004474272930648772}</t>
@@ -1798,7 +1798,7 @@
     <t>{238.0: 0.9953091684434968, 253.0: 0.004690831556503198}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 0.9947452593100297, 738.0: 0.003714175107252557, 228.0: 0.001540565582717742}</t>
@@ -1840,7 +1840,7 @@
     <t>{271.0: 0.8115203638861601, 237.0: 0.1884796361138399}</t>
   </si>
   <si>
-    <t>{275.0: 0.9445925803714912, 921.0: 0.009442148944137254, 77.0: 0.045965270684371805}</t>
+    <t>{275.0: 0.944592580371491, 921.0: 0.009442148944137254, 77.0: 0.045965270684371805}</t>
   </si>
   <si>
     <t>{276.0: 0.9986445928937944, 167.0: 0.0005680531756420232, 596.0: 0.0007873539305638049}</t>
@@ -1912,7 +1912,7 @@
     <t>{403.0: 1.0}</t>
   </si>
   <si>
-    <t>{405.0: 0.49482054480391596, 404.0: 0.3930108881632079, 907.0: 0.11216856703287591}</t>
+    <t>{405.0: 0.49483827665109575, 404.0: 0.39299315631602844, 907.0: 0.11216856703287591}</t>
   </si>
   <si>
     <t>{410.0: 0.9895157952821078, 77.0: 0.010484204717892125}</t>
@@ -1981,7 +1981,7 @@
     <t>{489.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 0.9720767471169998, 97.0: 0.011519836235458273, 696.0: 0.0004971835719633447, 85.0: 0.0005224471486935846, 178.0: 0.015383785926885338}</t>
+    <t>{492.0: 0.972076747116999, 97.0: 0.011519836235458273, 696.0: 0.0004971835719633447, 85.0: 0.0005224471486935846, 178.0: 0.015383785926885338}</t>
   </si>
   <si>
     <t>{493.0: 1.0}</t>
@@ -2194,7 +2194,7 @@
     <t>{695.0: 1.0}</t>
   </si>
   <si>
-    <t>{696.0: 0.9974817134579121, 14.0: 0.0005038629492777964, 492.0: 0.002010310775606779, 97.0: 4.11281720352593e-06}</t>
+    <t>{696.0: 0.9974817134579121, 14.0: 0.0005038629492777964, 492.0: 0.002010310775606778, 97.0: 4.11281720352593e-06}</t>
   </si>
   <si>
     <t>{698.0: 1.0}</t>
@@ -2275,7 +2275,7 @@
     <t>{781.0: 0.9989279297523234, 81.0: 0.0003496014686487367, 435.0: 0.0007224687790277634}</t>
   </si>
   <si>
-    <t>{785.0: 0.7952854710047504, 889.0: 0.20471452899524967}</t>
+    <t>{785.0: 0.6852693950668322, 889.0: 0.314730604933168}</t>
   </si>
   <si>
     <t>{787.0: 0.9919894647611933, 500.0: 0.0080055674650148, 277.0: 4.967773791507788e-06}</t>
@@ -2407,13 +2407,13 @@
     <t>{937.0: 0.9949109414758269, 85.0: 0.0050890585241730275}</t>
   </si>
   <si>
-    <t>{940.0: 0.9864997747918502, 785.0: 0.010626942004023135, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 889.0: 0.0009868862223623436}</t>
+    <t>{940.0: 0.9864997747918502, 785.0: 0.010096577353725059, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 889.0: 0.00151725087266042}</t>
   </si>
   <si>
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 0.8000222720249447, 848.0: 0.16133961771190689, 634.0: 0.03863811026314845}</t>
+    <t>{943.0: 0.770064142065748, 848.0: 0.1855094754451809, 634.0: 0.04442638248907136}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
